--- a/NformTester/NformTester/Keywordscripts/600.40.20.100_CheckRightsAssociatedWithUserGroups.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.100_CheckRightsAssociatedWithUserGroups.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7910" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7910" uniqueCount="846">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3771,10 +3771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Verify Access right with Users account</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3805,6 +3801,18 @@
   </si>
   <si>
     <t>C:\Nform\log\Audit.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4761,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4892,7 +4900,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>191</v>
@@ -6282,7 +6290,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -6460,7 +6468,7 @@
         <v>56</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -7208,7 +7216,7 @@
         <v>56</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="4"/>
@@ -7276,7 +7284,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="19"/>
@@ -7352,7 +7360,7 @@
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>804</v>
@@ -7430,7 +7438,7 @@
         <v>56</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -8178,7 +8186,7 @@
         <v>56</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I129" s="18"/>
       <c r="J129" s="4"/>
@@ -8249,15 +8257,15 @@
         <v>821</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
       <c r="H132" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J132" s="19" t="b">
         <v>1</v>
@@ -8275,15 +8283,15 @@
         <v>821</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
       <c r="H133" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J133" s="19" t="b">
         <v>1</v>
@@ -8298,7 +8306,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="19"/>
@@ -8392,7 +8400,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="E138" s="18" t="s">
         <v>191</v>
@@ -8476,7 +8484,7 @@
         <v>56</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -9224,7 +9232,7 @@
         <v>56</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I170" s="18"/>
       <c r="J170" s="4"/>
@@ -9292,18 +9300,18 @@
         <v>172</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="E173" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
       <c r="H173" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J173" s="19" t="b">
         <v>1</v>
@@ -9318,18 +9326,18 @@
         <v>173</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="E174" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
       <c r="H174" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J174" s="19" t="b">
         <v>1</v>
